--- a/SOCIOS.xlsx
+++ b/SOCIOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -28,12 +28,12 @@
     <t>APELLIDOS</t>
   </si>
   <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
     <t>SOCIO</t>
   </si>
   <si>
-    <t>OBSERVACIONES</t>
-  </si>
-  <si>
     <t>11646581-7</t>
   </si>
   <si>
@@ -46,6 +46,9 @@
     <t>QUINTEROS</t>
   </si>
   <si>
+    <t>BASKET UC</t>
+  </si>
+  <si>
     <t>9528361-6</t>
   </si>
   <si>
@@ -187,7 +190,7 @@
     <t>UBILLA</t>
   </si>
   <si>
-    <t>9517782-3</t>
+    <t>9517872-3</t>
   </si>
   <si>
     <t>fquinones@bravoizquierdo.cl</t>
@@ -308,7 +311,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -424,24 +427,52 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF442F65"/>
+        <color rgb="FFF8F9FA"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF442F65"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -454,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -477,7 +508,7 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -485,16 +516,22 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -562,8 +599,8 @@
     <tableColumn name="EMAIL" id="3"/>
     <tableColumn name="NOMBRE" id="4"/>
     <tableColumn name="APELLIDOS" id="5"/>
-    <tableColumn name="SOCIO" id="6"/>
-    <tableColumn name="OBSERVACIONES" id="7"/>
+    <tableColumn name="OBSERVACIONES" id="6"/>
+    <tableColumn name="SOCIO" id="7"/>
   </tableColumns>
   <tableStyleInfo name="Respuestas de formulario 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -821,40 +858,48 @@
         <v>10</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8">
         <v>45572.81955730324</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>45573.72538238426</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>18</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -862,33 +907,39 @@
         <v>45573.7259003125</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>45573.730613078704</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>25</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -896,33 +947,39 @@
         <v>45574.76761195602</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>45576.713229155095</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>33</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -930,33 +987,39 @@
         <v>45579.80003085648</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>45581.837263043984</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>41</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -964,33 +1027,39 @@
         <v>45581.83828873842</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>45583.64513971064</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>49</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -998,33 +1067,39 @@
         <v>45583.7540596412</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>45585.44329938658</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>57</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1032,33 +1107,39 @@
         <v>45586.81223101851</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10">
+      <c r="A16" s="11">
         <v>45586.822170416664</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>64</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1066,33 +1147,39 @@
         <v>45586.822988518514</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>45586.82467664352</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>72</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1100,33 +1187,39 @@
         <v>45586.82527785879</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>45586.82653157407</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>80</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -1134,33 +1227,39 @@
         <v>45586.82721928241</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12">
+      <c r="A22" s="13">
         <v>45586.85910181713</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>88</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
